--- a/data/sun_data.xlsx
+++ b/data/sun_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mpeterse/Code/git/github.com/mpetersen/moonshot/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A93AD71-716A-FD4A-AE3A-A812F80F079C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EF40EA-074D-9B45-A8E4-80BFF75C8C62}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{159E5494-F9E5-AB42-A366-DC876278429B}"/>
   </bookViews>
@@ -175,7 +175,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2396,7 +2396,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
